--- a/strategy/2024-02-26.xlsx
+++ b/strategy/2024-02-26.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -442,7 +442,7 @@
         <v>45348.0416550926</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="7" t="n">
         <v>50</v>
@@ -468,7 +468,7 @@
         <v>45348.0833217593</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -495,7 +495,7 @@
         <v>45348.1249884259</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -522,7 +522,7 @@
         <v>45348.1666550926</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>54.6</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -549,7 +549,7 @@
         <v>45348.2083217593</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>54.6</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -576,7 +576,7 @@
         <v>45348.2499884259</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>54.6</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -603,7 +603,7 @@
         <v>45348.2916550926</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>54.6</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -630,7 +630,7 @@
         <v>45348.3333217593</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>54.6</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -657,7 +657,7 @@
         <v>45348.3749884259</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>54.6</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -684,7 +684,7 @@
         <v>45348.4166550926</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -711,7 +711,7 @@
         <v>45348.4583217593</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -738,7 +738,7 @@
         <v>45348.4999884259</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -765,7 +765,7 @@
         <v>45348.5416550926</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H15" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -792,7 +792,7 @@
         <v>45348.5833217593</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H16" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -819,7 +819,7 @@
         <v>45348.6249884259</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>54.6</v>
+        <v>51</v>
       </c>
       <c r="H17" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -846,7 +846,7 @@
         <v>45348.6666550926</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>54.6</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -873,7 +873,7 @@
         <v>45348.7083217593</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>54.6</v>
+        <v>55</v>
       </c>
       <c r="H19" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -901,7 +901,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H20" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -929,7 +929,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H21" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -957,7 +957,7 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H22" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -985,7 +985,7 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H23" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -1012,7 +1012,7 @@
         <v>45348.9166550926</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -1039,7 +1039,7 @@
         <v>45348.9583217593</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -1066,7 +1066,7 @@
         <v>45348.9999884259</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">$H$3</f>

--- a/strategy/2024-02-26.xlsx
+++ b/strategy/2024-02-26.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -846,7 +846,7 @@
         <v>45348.6666550926</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H18" s="1" t="n">
         <f aca="false">$H$3</f>
